--- a/Mutaties_op_volgorde.xlsx
+++ b/Mutaties_op_volgorde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DSO\Geonovum\GitHub\xml_omgevingsplan_gemeentestad_1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905DA5B-A165-42CC-933E-37BAE26B88EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3174E6-CB6A-4929-8072-9427DEC89407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="5010" windowWidth="11520" windowHeight="8325" xr2:uid="{600EECAF-36E6-47D1-9FD7-589E6BB5AE7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{600EECAF-36E6-47D1-9FD7-589E6BB5AE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitleg" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Afdeling</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Horizontaal de elementen die gewijzigd kunnen worden</t>
+  </si>
+  <si>
+    <t>opdracht_10</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +340,7 @@
       <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -654,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876E5593-287E-4421-83E6-EC40503175EF}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -685,26 +688,26 @@
       <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -895,7 +898,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -905,12 +908,12 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -920,32 +923,32 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -969,15 +972,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F2EA75-A1BD-44F3-A014-20BA6C46BD90}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="0.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="0.5703125" style="8" customWidth="1"/>
     <col min="4" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="110.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -989,7 +994,7 @@
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,12 +1161,12 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1236,6 +1241,14 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
